--- a/paper/results/fast_results_pure_replication.xlsx
+++ b/paper/results/fast_results_pure_replication.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="13970"/>
   </bookViews>
   <sheets>
     <sheet name="fast results (pure replication)" sheetId="8" r:id="rId1"/>
@@ -642,14 +642,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Replication</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0%"/>
+              <a:rPr lang="en-US" b="1" baseline="0%"/>
               <a:t> (payload = 0 bytes)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -696,7 +696,7 @@
             <c:v>Replicas=1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -705,7 +705,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -812,7 +812,7 @@
             <c:v>Replicas=2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -821,7 +821,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -928,7 +928,7 @@
             <c:v>Replicas=3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1045,11 +1045,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279086192"/>
-        <c:axId val="279089328"/>
+        <c:axId val="150238424"/>
+        <c:axId val="220812384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279086192"/>
+        <c:axId val="150238424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1076,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65%"/>
@@ -1089,7 +1089,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0%"/>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0%"/>
                   <a:t>Throughput (Mops/sec)</a:t>
                 </a:r>
               </a:p>
@@ -1109,7 +1109,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65%"/>
@@ -1147,7 +1147,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65%"/>
@@ -1162,12 +1162,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279089328"/>
+        <c:crossAx val="220812384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279089328"/>
+        <c:axId val="220812384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1194,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65%"/>
@@ -1207,7 +1207,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0%"/>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0%"/>
                   <a:t>Latency at client (us)</a:t>
                 </a:r>
               </a:p>
@@ -1227,7 +1227,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65%"/>
@@ -1265,7 +1265,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65%"/>
@@ -1280,7 +1280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279086192"/>
+        <c:crossAx val="150238424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1293,7 +1293,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1308,7 +1308,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65%"/>
@@ -1355,8 +1355,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1737,11 +1737,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331864904"/>
-        <c:axId val="331867256"/>
+        <c:axId val="220606408"/>
+        <c:axId val="220609544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331864904"/>
+        <c:axId val="220606408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,12 +1853,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331867256"/>
+        <c:crossAx val="220609544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331867256"/>
+        <c:axId val="220609544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,7 +1970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331864904"/>
+        <c:crossAx val="220606408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2518,11 +2518,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331865296"/>
-        <c:axId val="331868040"/>
+        <c:axId val="220609152"/>
+        <c:axId val="221827360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331865296"/>
+        <c:axId val="220609152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,12 +2634,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331868040"/>
+        <c:crossAx val="221827360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331868040"/>
+        <c:axId val="221827360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2752,7 +2752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331865296"/>
+        <c:crossAx val="220609152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -3246,11 +3246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331869216"/>
-        <c:axId val="331861768"/>
+        <c:axId val="221828536"/>
+        <c:axId val="221826576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331869216"/>
+        <c:axId val="221828536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3362,12 +3362,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331861768"/>
+        <c:crossAx val="221826576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331861768"/>
+        <c:axId val="221826576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,7 +3479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331869216"/>
+        <c:crossAx val="221828536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3972,11 +3972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279086976"/>
-        <c:axId val="279084624"/>
+        <c:axId val="221829712"/>
+        <c:axId val="221833632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279086976"/>
+        <c:axId val="221829712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4088,12 +4088,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279084624"/>
+        <c:crossAx val="221833632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279084624"/>
+        <c:axId val="221833632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4205,7 +4205,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279086976"/>
+        <c:crossAx val="221829712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4667,11 +4667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279088152"/>
-        <c:axId val="332566376"/>
+        <c:axId val="221832456"/>
+        <c:axId val="221832848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279088152"/>
+        <c:axId val="221832456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4783,12 +4783,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332566376"/>
+        <c:crossAx val="221832848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="332566376"/>
+        <c:axId val="221832848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4900,7 +4900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279088152"/>
+        <c:crossAx val="221832456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5362,11 +5362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="332571864"/>
-        <c:axId val="332567160"/>
+        <c:axId val="221830496"/>
+        <c:axId val="221829320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="332571864"/>
+        <c:axId val="221830496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5478,12 +5478,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332567160"/>
+        <c:crossAx val="221829320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="332567160"/>
+        <c:axId val="221829320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5595,7 +5595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332571864"/>
+        <c:crossAx val="221830496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5665,7 +5665,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65%"/>
@@ -5678,12 +5678,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0%">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0%">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Replication (payload = 0 bytes)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0%">
+            <a:endParaRPr lang="en-US" sz="1400" b="1" baseline="0%">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -5703,7 +5703,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65%"/>
@@ -5732,7 +5732,7 @@
             <c:v>Replicas=1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -5741,7 +5741,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -5848,7 +5848,7 @@
             <c:v>Replicas=2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -5857,7 +5857,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="star"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -5964,7 +5964,7 @@
             <c:v>Replicas=3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -6081,11 +6081,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279088936"/>
-        <c:axId val="279091288"/>
+        <c:axId val="221196648"/>
+        <c:axId val="221197032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279088936"/>
+        <c:axId val="221196648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6112,7 +6112,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65%"/>
@@ -6125,7 +6125,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0%"/>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0%"/>
                   <a:t>Transmit Throughput at Server (Gbps)</a:t>
                 </a:r>
               </a:p>
@@ -6145,7 +6145,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65%"/>
@@ -6183,7 +6183,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65%"/>
@@ -6198,12 +6198,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279091288"/>
+        <c:crossAx val="221197032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279091288"/>
+        <c:axId val="221197032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6230,7 +6230,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65%"/>
@@ -6243,7 +6243,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0%"/>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0%"/>
                   <a:t>Latency (us)</a:t>
                 </a:r>
               </a:p>
@@ -6263,7 +6263,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65%"/>
@@ -6301,7 +6301,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65%"/>
@@ -6316,7 +6316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279088936"/>
+        <c:crossAx val="221196648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6329,7 +6329,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6344,7 +6344,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65%"/>
@@ -6391,8 +6391,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6418,7 +6418,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65%"/>
@@ -6431,14 +6431,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Replication (payload </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0%"/>
+              <a:rPr lang="en-US" b="1" baseline="0%"/>
               <a:t>= 512 bytes)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6456,7 +6456,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65%"/>
@@ -6485,7 +6485,7 @@
             <c:v>Replicas=1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -6494,7 +6494,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -6595,7 +6595,7 @@
             <c:v>Replicas=2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -6604,7 +6604,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="star"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -6699,7 +6699,7 @@
             <c:v>Replicas=3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -6798,11 +6798,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279092072"/>
-        <c:axId val="279085800"/>
+        <c:axId val="221230744"/>
+        <c:axId val="221239328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279092072"/>
+        <c:axId val="221230744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6829,7 +6829,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65%"/>
@@ -6842,7 +6842,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0%"/>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0%"/>
                   <a:t>Throughput (Mops/sec)</a:t>
                 </a:r>
               </a:p>
@@ -6862,7 +6862,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65%"/>
@@ -6900,7 +6900,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65%"/>
@@ -6915,12 +6915,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279085800"/>
+        <c:crossAx val="221239328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279085800"/>
+        <c:axId val="221239328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6947,7 +6947,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65%"/>
@@ -6960,14 +6960,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Latency</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0%"/>
+                  <a:t>Latency at client (us)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0%"/>
-                  <a:t> at client (us)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6985,7 +6980,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65%"/>
@@ -7023,7 +7018,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65%"/>
@@ -7038,7 +7033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279092072"/>
+        <c:crossAx val="221230744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7051,7 +7046,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -7066,7 +7061,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65%"/>
@@ -7113,8 +7108,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7140,7 +7135,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65%"/>
@@ -7153,7 +7148,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Replication (payload = 512 bytes)</a:t>
             </a:r>
           </a:p>
@@ -7173,7 +7168,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65%"/>
@@ -7202,7 +7197,7 @@
             <c:v>Replicas=1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -7211,7 +7206,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7312,7 +7307,7 @@
             <c:v>Replicas=2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -7321,7 +7316,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="star"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7416,7 +7411,7 @@
             <c:v>Replicas=3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -7515,11 +7510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279085016"/>
-        <c:axId val="279087760"/>
+        <c:axId val="71182136"/>
+        <c:axId val="71182920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279085016"/>
+        <c:axId val="71182136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7546,7 +7541,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65%"/>
@@ -7559,7 +7554,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0%"/>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0%"/>
                   <a:t>Transmit Throughput at Server (Gbps)</a:t>
                 </a:r>
               </a:p>
@@ -7579,7 +7574,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65%"/>
@@ -7617,7 +7612,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65%"/>
@@ -7632,12 +7627,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279087760"/>
+        <c:crossAx val="71182920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279087760"/>
+        <c:axId val="71182920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7664,7 +7659,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65%"/>
@@ -7677,7 +7672,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0%"/>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0%"/>
                   <a:t>Latency at client (us) </a:t>
                 </a:r>
               </a:p>
@@ -7697,7 +7692,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65%"/>
@@ -7735,7 +7730,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65%"/>
@@ -7750,7 +7745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279085016"/>
+        <c:crossAx val="71182136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7763,7 +7758,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -7778,7 +7773,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65%"/>
@@ -7825,8 +7820,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -8207,11 +8202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279090112"/>
-        <c:axId val="279085408"/>
+        <c:axId val="220607584"/>
+        <c:axId val="220608760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279090112"/>
+        <c:axId val="220607584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -8329,12 +8324,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279085408"/>
+        <c:crossAx val="220608760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279085408"/>
+        <c:axId val="220608760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8446,7 +8441,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279090112"/>
+        <c:crossAx val="220607584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8902,11 +8897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331862552"/>
-        <c:axId val="331862160"/>
+        <c:axId val="220602488"/>
+        <c:axId val="220602880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331862552"/>
+        <c:axId val="220602488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9018,12 +9013,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331862160"/>
+        <c:crossAx val="220602880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331862160"/>
+        <c:axId val="220602880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9135,7 +9130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331862552"/>
+        <c:crossAx val="220602488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9591,11 +9586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331862944"/>
-        <c:axId val="331865688"/>
+        <c:axId val="220605232"/>
+        <c:axId val="220607976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331862944"/>
+        <c:axId val="220605232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -9713,12 +9708,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331865688"/>
+        <c:crossAx val="220607976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331865688"/>
+        <c:axId val="220607976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9830,7 +9825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331862944"/>
+        <c:crossAx val="220605232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10268,11 +10263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331866472"/>
-        <c:axId val="331863728"/>
+        <c:axId val="220604056"/>
+        <c:axId val="220604448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331866472"/>
+        <c:axId val="220604056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10384,12 +10379,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331863728"/>
+        <c:crossAx val="220604448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331863728"/>
+        <c:axId val="220604448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10501,7 +10496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331866472"/>
+        <c:crossAx val="220604056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10957,11 +10952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331866080"/>
-        <c:axId val="331868824"/>
+        <c:axId val="220605624"/>
+        <c:axId val="220606016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331866080"/>
+        <c:axId val="220605624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -11079,12 +11074,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331868824"/>
+        <c:crossAx val="220606016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331868824"/>
+        <c:axId val="220606016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11196,7 +11191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331866080"/>
+        <c:crossAx val="220605624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19626,8 +19621,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>365125</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -19650,16 +19645,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19681,15 +19676,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19710,16 +19705,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20365,8 +20360,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E45" workbookViewId="0">
-      <selection activeCell="R67" sqref="R67"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21968,7 +21963,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/paper/results/fast_results_pure_replication.xlsx
+++ b/paper/results/fast_results_pure_replication.xlsx
@@ -1045,11 +1045,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150238424"/>
-        <c:axId val="220812384"/>
+        <c:axId val="90912280"/>
+        <c:axId val="90915808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150238424"/>
+        <c:axId val="90912280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,12 +1162,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220812384"/>
+        <c:crossAx val="90915808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220812384"/>
+        <c:axId val="90915808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150238424"/>
+        <c:crossAx val="90912280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1308,7 +1308,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65%"/>
@@ -1737,11 +1737,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220606408"/>
-        <c:axId val="220609544"/>
+        <c:axId val="91114944"/>
+        <c:axId val="91112200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220606408"/>
+        <c:axId val="91114944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,12 +1853,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220609544"/>
+        <c:crossAx val="91112200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220609544"/>
+        <c:axId val="91112200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,7 +1970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220606408"/>
+        <c:crossAx val="91114944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2518,11 +2518,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220609152"/>
-        <c:axId val="221827360"/>
+        <c:axId val="91111808"/>
+        <c:axId val="91110240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220609152"/>
+        <c:axId val="91111808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,12 +2634,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221827360"/>
+        <c:crossAx val="91110240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221827360"/>
+        <c:axId val="91110240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2752,7 +2752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220609152"/>
+        <c:crossAx val="91111808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -3246,11 +3246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221828536"/>
-        <c:axId val="221826576"/>
+        <c:axId val="91113376"/>
+        <c:axId val="91117296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221828536"/>
+        <c:axId val="91113376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3362,12 +3362,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221826576"/>
+        <c:crossAx val="91117296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221826576"/>
+        <c:axId val="91117296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,7 +3479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221828536"/>
+        <c:crossAx val="91113376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3972,11 +3972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221829712"/>
-        <c:axId val="221833632"/>
+        <c:axId val="90913064"/>
+        <c:axId val="90915416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221829712"/>
+        <c:axId val="90913064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4088,12 +4088,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221833632"/>
+        <c:crossAx val="90915416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221833632"/>
+        <c:axId val="90915416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4205,7 +4205,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221829712"/>
+        <c:crossAx val="90913064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4667,11 +4667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221832456"/>
-        <c:axId val="221832848"/>
+        <c:axId val="90915024"/>
+        <c:axId val="336967288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221832456"/>
+        <c:axId val="90915024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4783,12 +4783,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221832848"/>
+        <c:crossAx val="336967288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221832848"/>
+        <c:axId val="336967288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4900,7 +4900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221832456"/>
+        <c:crossAx val="90915024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5362,11 +5362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221830496"/>
-        <c:axId val="221829320"/>
+        <c:axId val="336964936"/>
+        <c:axId val="336961408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221830496"/>
+        <c:axId val="336964936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5478,12 +5478,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221829320"/>
+        <c:crossAx val="336961408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221829320"/>
+        <c:axId val="336961408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5595,7 +5595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221830496"/>
+        <c:crossAx val="336964936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6081,11 +6081,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221196648"/>
-        <c:axId val="221197032"/>
+        <c:axId val="90916200"/>
+        <c:axId val="90916592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221196648"/>
+        <c:axId val="90916200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6198,12 +6198,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221197032"/>
+        <c:crossAx val="90916592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221197032"/>
+        <c:axId val="90916592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6316,7 +6316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221196648"/>
+        <c:crossAx val="90916200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6344,7 +6344,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65%"/>
@@ -6798,11 +6798,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221230744"/>
-        <c:axId val="221239328"/>
+        <c:axId val="90913848"/>
+        <c:axId val="90913456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221230744"/>
+        <c:axId val="90913848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6915,12 +6915,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221239328"/>
+        <c:crossAx val="90913456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221239328"/>
+        <c:axId val="90913456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7033,7 +7033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221230744"/>
+        <c:crossAx val="90913848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7061,7 +7061,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65%"/>
@@ -7510,11 +7510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71182136"/>
-        <c:axId val="71182920"/>
+        <c:axId val="90910712"/>
+        <c:axId val="90917768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71182136"/>
+        <c:axId val="90910712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7627,12 +7627,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71182920"/>
+        <c:crossAx val="90917768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71182920"/>
+        <c:axId val="90917768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7745,7 +7745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71182136"/>
+        <c:crossAx val="90910712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7773,7 +7773,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65%"/>
@@ -8202,11 +8202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220607584"/>
-        <c:axId val="220608760"/>
+        <c:axId val="90918160"/>
+        <c:axId val="90911888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220607584"/>
+        <c:axId val="90918160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -8324,12 +8324,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220608760"/>
+        <c:crossAx val="90911888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220608760"/>
+        <c:axId val="90911888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8441,7 +8441,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220607584"/>
+        <c:crossAx val="90918160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8897,11 +8897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220602488"/>
-        <c:axId val="220602880"/>
+        <c:axId val="90911496"/>
+        <c:axId val="91115728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220602488"/>
+        <c:axId val="90911496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9013,12 +9013,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220602880"/>
+        <c:crossAx val="91115728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220602880"/>
+        <c:axId val="91115728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9130,7 +9130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220602488"/>
+        <c:crossAx val="90911496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9586,11 +9586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220605232"/>
-        <c:axId val="220607976"/>
+        <c:axId val="91114160"/>
+        <c:axId val="91115336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220605232"/>
+        <c:axId val="91114160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -9708,12 +9708,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220607976"/>
+        <c:crossAx val="91115336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220607976"/>
+        <c:axId val="91115336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9825,7 +9825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220605232"/>
+        <c:crossAx val="91114160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10263,11 +10263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220604056"/>
-        <c:axId val="220604448"/>
+        <c:axId val="91116120"/>
+        <c:axId val="91116512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220604056"/>
+        <c:axId val="91116120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10379,12 +10379,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220604448"/>
+        <c:crossAx val="91116512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220604448"/>
+        <c:axId val="91116512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10496,7 +10496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220604056"/>
+        <c:crossAx val="91116120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10952,11 +10952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220605624"/>
-        <c:axId val="220606016"/>
+        <c:axId val="91114552"/>
+        <c:axId val="91111024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220605624"/>
+        <c:axId val="91114552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -11074,12 +11074,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220606016"/>
+        <c:crossAx val="91111024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220606016"/>
+        <c:axId val="91111024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11191,7 +11191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220605624"/>
+        <c:crossAx val="91114552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20360,8 +20360,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="F15" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
